--- a/Assets/Scenario/temmie.xlsx
+++ b/Assets/Scenario/temmie.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
   <si>
     <t>&lt;Page&gt;</t>
   </si>
@@ -19,17 +19,65 @@
     <t>talk</t>
   </si>
   <si>
-    <t>ホィ！テミーだ！</t>
+    <t>テミー</t>
+  </si>
+  <si>
+    <t>ホィ！</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>テミーだ！</t>
+  </si>
+  <si>
+    <t>こっちは友達の…</t>
+  </si>
+  <si>
+    <t>ボブだ！</t>
   </si>
   <si>
     <t>&lt;/Page&gt;</t>
+  </si>
+  <si>
+    <t>forced.fluent</t>
+  </si>
+  <si>
+    <t>branch.multi</t>
+  </si>
+  <si>
+    <t>テミー質問</t>
+  </si>
+  <si>
+    <t>力こぶを見せる</t>
+  </si>
+  <si>
+    <t>label.branch</t>
+  </si>
+  <si>
+    <t>&lt;Label&gt;</t>
+  </si>
+  <si>
+    <t>ｷｬﾜﾜ！！</t>
+  </si>
+  <si>
+    <t>label.open</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>ぃやあﾝ！きんにき…きゃわわくにゃぃ！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -40,6 +88,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,11 +109,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -278,6 +334,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.13"/>
+    <col customWidth="1" min="3" max="3" width="34.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -285,17 +345,242 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/Scenario/temmie.xlsx
+++ b/Assets/Scenario/temmie.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>&lt;Page&gt;</t>
   </si>
@@ -22,62 +22,75 @@
     <t>テミー</t>
   </si>
   <si>
+    <t>ホィ！
+テミーだ！</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>branch.multi</t>
+  </si>
+  <si>
+    <t>テミー質問</t>
+  </si>
+  <si>
     <t>ホィ！</t>
   </si>
   <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>テミーだ！</t>
-  </si>
-  <si>
-    <t>こっちは友達の…</t>
-  </si>
-  <si>
-    <t>ボブだ！</t>
+    <t>力こぶを見せる</t>
+  </si>
+  <si>
+    <t>label.branch</t>
+  </si>
+  <si>
+    <t>&lt;Label&gt;</t>
+  </si>
+  <si>
+    <t>ｷｬﾜﾜ！！</t>
+  </si>
+  <si>
+    <t>label.open</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>ぃやあﾝ！きんにき…きゃわわくにゃぃ！</t>
+  </si>
+  <si>
+    <t>window.close</t>
+  </si>
+  <si>
+    <t>forced.fluent</t>
   </si>
   <si>
     <t>&lt;/Page&gt;</t>
   </si>
   <si>
-    <t>forced.fluent</t>
-  </si>
-  <si>
-    <t>branch.multi</t>
-  </si>
-  <si>
-    <t>テミー質問</t>
-  </si>
-  <si>
-    <t>力こぶを見せる</t>
-  </si>
-  <si>
-    <t>label.branch</t>
-  </si>
-  <si>
-    <t>&lt;Label&gt;</t>
-  </si>
-  <si>
-    <t>ｷｬﾜﾜ！！</t>
-  </si>
-  <si>
-    <t>label.open</t>
-  </si>
-  <si>
-    <t>Exit</t>
-  </si>
-  <si>
-    <t>ぃやあﾝ！きんにき…きゃわわくにゃぃ！</t>
+    <t>会話の結果として発生しうるもの</t>
+  </si>
+  <si>
+    <t>・アイテム獲得/喪失</t>
+  </si>
+  <si>
+    <t>・金銭の授受</t>
+  </si>
+  <si>
+    <t>・ミッション受注/達成</t>
+  </si>
+  <si>
+    <t>・音を鳴らす</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -85,6 +98,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -93,6 +107,11 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Consolas"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,14 +128,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -343,244 +366,237 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="16">
+      <c r="F16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/Scenario/temmie.xlsx
+++ b/Assets/Scenario/temmie.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>&lt;Page&gt;</t>
   </si>
@@ -19,11 +19,10 @@
     <t>talk</t>
   </si>
   <si>
-    <t>テミー</t>
-  </si>
-  <si>
-    <t>ホィ！
-テミーだ！</t>
+    <t>アカリ</t>
+  </si>
+  <si>
+    <t>薬草を10個採ってきてください</t>
   </si>
   <si>
     <t>std</t>
@@ -35,13 +34,13 @@
     <t>branch.multi</t>
   </si>
   <si>
-    <t>テミー質問</t>
-  </si>
-  <si>
-    <t>ホィ！</t>
-  </si>
-  <si>
-    <t>力こぶを見せる</t>
+    <t>アカリ依頼</t>
+  </si>
+  <si>
+    <t>いいよ</t>
+  </si>
+  <si>
+    <t>やだよ</t>
   </si>
   <si>
     <t>label.branch</t>
@@ -50,7 +49,10 @@
     <t>&lt;Label&gt;</t>
   </si>
   <si>
-    <t>ｷｬﾜﾜ！！</t>
+    <t>ありがとうございます</t>
+  </si>
+  <si>
+    <t>mission.receive</t>
   </si>
   <si>
     <t>label.open</t>
@@ -59,7 +61,7 @@
     <t>Exit</t>
   </si>
   <si>
-    <t>ぃやあﾝ！きんにき…きゃわわくにゃぃ！</t>
+    <t>他の人に頼んでみます</t>
   </si>
   <si>
     <t>window.close</t>
@@ -447,125 +449,108 @@
         <v>4</v>
       </c>
       <c r="E6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="16">
-      <c r="F16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="18">
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="21">
       <c r="F21" s="3" t="s">
@@ -573,10 +558,11 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="22">
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
@@ -596,6 +582,11 @@
     <row r="27">
       <c r="A27" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
